--- a/config_Release/act_053_xcns_config.xlsx
+++ b/config_Release/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>line</t>
   </si>
@@ -56,55 +56,82 @@
     <t>award_icon|图标</t>
   </si>
   <si>
-    <t>话费碎片</t>
-  </si>
-  <si>
-    <t>5~30</t>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>玩具锤</t>
+  </si>
+  <si>
+    <t>com_award_icon_cz1</t>
+  </si>
+  <si>
+    <t>请在冲金鸡中使用</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>8000~5万</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
   </si>
   <si>
     <t>福利券</t>
   </si>
   <si>
-    <t>8~50</t>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-  </si>
-  <si>
-    <t>50~200</t>
-  </si>
-  <si>
     <t>ty_icon_flq2</t>
   </si>
   <si>
-    <t>80~300</t>
-  </si>
-  <si>
-    <t>180~800</t>
+    <t>水滴</t>
+  </si>
+  <si>
+    <t>10个~40个</t>
+  </si>
+  <si>
+    <t>zpg_icon_shui</t>
+  </si>
+  <si>
+    <t>请在苹果大战中使用</t>
+  </si>
+  <si>
+    <t>8万~30万</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+  </si>
+  <si>
+    <t>小游戏币</t>
+  </si>
+  <si>
+    <t>18万~80万</t>
+  </si>
+  <si>
+    <t>ty_icon_yxb_2</t>
+  </si>
+  <si>
+    <t>400~2000</t>
   </si>
   <si>
     <t>ty_icon_flq3</t>
   </si>
   <si>
-    <t>400~2000</t>
-  </si>
-  <si>
-    <t>400~2200</t>
+    <t>40万~220万</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_18y</t>
+  </si>
+  <si>
+    <t>80万~500万</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+  </si>
+  <si>
+    <t>800~3000</t>
   </si>
   <si>
     <t>ty_icon_flq4</t>
-  </si>
-  <si>
-    <t>800~5000</t>
-  </si>
-  <si>
-    <t>800~3000</t>
-  </si>
-  <si>
-    <t>ty_icon_flq5</t>
   </si>
 </sst>
 </file>
@@ -112,12 +139,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +153,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -134,44 +182,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,25 +229,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,45 +258,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,193 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,17 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +526,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +569,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -552,40 +603,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,142 +621,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,8 +1089,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1090,14 +1126,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1000639</v>
+      <c r="B2" s="5">
+        <v>1000651</v>
       </c>
       <c r="C2" s="1">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="D2" s="1">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1221,23 +1257,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="23.9333333333333" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1253,8 +1290,11 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1262,13 +1302,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1279,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1296,16 +1339,16 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1313,13 +1356,16 @@
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1330,13 +1376,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1347,13 +1393,13 @@
         <v>400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1364,13 +1410,13 @@
         <v>800</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1381,13 +1427,13 @@
         <v>1200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1398,13 +1444,13 @@
         <v>2000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1415,13 +1461,13 @@
         <v>3000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/config_Release/act_053_xcns_config.xlsx
+++ b/config_Release/act_053_xcns_config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>line</t>
   </si>
@@ -59,49 +59,37 @@
     <t>tips</t>
   </si>
   <si>
-    <t>玩具锤</t>
-  </si>
-  <si>
-    <t>com_award_icon_cz1</t>
-  </si>
-  <si>
-    <t>请在冲金鸡中使用</t>
+    <t>福利券</t>
+  </si>
+  <si>
+    <t>8~50</t>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+  </si>
+  <si>
+    <t>小游戏币</t>
+  </si>
+  <si>
+    <t>8000~5万</t>
+  </si>
+  <si>
+    <t>ty_icon_yxb_1</t>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+  </si>
+  <si>
+    <t>50~200</t>
   </si>
   <si>
     <t>金币</t>
   </si>
   <si>
-    <t>8000~5万</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_6y</t>
-  </si>
-  <si>
-    <t>福利券</t>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-  </si>
-  <si>
-    <t>水滴</t>
-  </si>
-  <si>
-    <t>10个~40个</t>
-  </si>
-  <si>
-    <t>zpg_icon_shui</t>
-  </si>
-  <si>
-    <t>请在苹果大战中使用</t>
-  </si>
-  <si>
     <t>8万~30万</t>
   </si>
   <si>
     <t>ty_icon_jb_15y</t>
-  </si>
-  <si>
-    <t>小游戏币</t>
   </si>
   <si>
     <t>18万~80万</t>
@@ -141,16 +129,22 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -159,30 +153,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,32 +222,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,48 +260,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,28 +292,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,19 +306,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +432,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,156 +486,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -506,11 +500,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,16 +568,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +591,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,189 +625,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1115,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1127,13 +1152,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>1000651</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1622505600</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1623081599</v>
+        <v>1000658</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1623110400</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1624895999</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1260,7 +1285,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1274,7 +1299,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1294,34 +1319,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:6">
+    <row r="2" ht="18" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1331,143 +1354,141 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="15" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>200</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>400</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>800</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1200</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2000</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>3000</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/config_Release/act_053_xcns_config.xlsx
+++ b/config_Release/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>line</t>
   </si>
@@ -29,10 +29,22 @@
     <t>endTime|结束时间</t>
   </si>
   <si>
+    <t>startTime_weekly</t>
+  </si>
+  <si>
+    <t>endTime_weekly</t>
+  </si>
+  <si>
     <t>gotoui|获取倍数跳转</t>
   </si>
   <si>
     <t>downDes|底部描述</t>
+  </si>
+  <si>
+    <t>1623110400,1623715200,1624320000</t>
+  </si>
+  <si>
+    <t>1623686399,1624291199,1624895999</t>
   </si>
   <si>
     <t>game_MiniGame</t>
@@ -127,12 +139,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +165,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -161,14 +193,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,85 +278,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,14 +302,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,43 +324,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,139 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,11 +546,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,45 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -598,15 +616,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,16 +634,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,137 +661,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -787,11 +805,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,22 +1141,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="66" customWidth="1"/>
+    <col min="5" max="5" width="34.325" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.6583333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="15.75" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,137 +1171,179 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>1000658</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>1623110400</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>1624895999</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,7 +1357,7 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1301,22 +1374,22 @@
   <sheetData>
     <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:6">
@@ -1327,13 +1400,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -1345,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
@@ -1362,13 +1435,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:6">
@@ -1379,13 +1452,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -1397,13 +1470,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:5">
@@ -1414,13 +1487,13 @@
         <v>400</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
@@ -1431,13 +1504,13 @@
         <v>800</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:5">
@@ -1448,13 +1521,13 @@
         <v>1200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:5">
@@ -1465,13 +1538,13 @@
         <v>2000</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:5">
@@ -1482,13 +1555,13 @@
         <v>3000</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/config_Release/act_053_xcns_config.xlsx
+++ b/config_Release/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>downDes|底部描述</t>
   </si>
   <si>
-    <t>1623110400,1623715200,1624320000</t>
-  </si>
-  <si>
-    <t>1623686399,1624291199,1624895999</t>
+    <t>1624924800,1625443200,1626048000,1626652800</t>
+  </si>
+  <si>
+    <t>1625500799,1626105599,1626710399,1627315199</t>
   </si>
   <si>
     <t>game_MiniGame</t>
@@ -139,9 +139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -172,7 +172,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,22 +214,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,11 +238,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,22 +277,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -263,7 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,15 +301,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,28 +314,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -324,187 +324,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +547,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -557,21 +587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,28 +609,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,9 +635,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,145 +649,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,8 +1143,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1189,13 +1189,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>1000658</v>
+        <v>1000688</v>
       </c>
       <c r="C2" s="9">
-        <v>1623110400</v>
+        <v>1624924800</v>
       </c>
       <c r="D2" s="9">
-        <v>1624895999</v>
+        <v>1627315199</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>8</v>
@@ -1357,8 +1357,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_Release/act_053_xcns_config.xlsx
+++ b/config_Release/act_053_xcns_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>line</t>
   </si>
@@ -116,55 +116,6 @@
   </si>
   <si>
     <t>800~3000</t>
-  </si>
-  <si>
-    <t>话费碎片</t>
-  </si>
-  <si>
-    <r>
-      <t>1624924800,1625443200,1626048000,1626652800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1627344000</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1625500799,1626105599,1626710399,1627315199</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1627919999</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -181,6 +132,50 @@
       </rPr>
       <t>2</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1624924800,1625443200,1626048000,1626652800,1627344000,1627948800</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1625500799,1626105599,1626710399,1627315199,1627919999,1630339199</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券</t>
+  </si>
+  <si>
+    <t>福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ty_icon_flq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +586,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,10 +634,10 @@
         <v>1000688</v>
       </c>
       <c r="C2" s="7">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="D2" s="7">
-        <v>1627919999</v>
+        <v>1630339199</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>33</v>
@@ -804,7 +799,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,13 +841,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
+      <c r="E2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -881,13 +876,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -898,13 +893,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -950,13 +945,13 @@
         <v>800</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1001,13 +996,13 @@
         <v>3000</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">

--- a/config_Release/act_053_xcns_config.xlsx
+++ b/config_Release/act_053_xcns_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>line</t>
   </si>
@@ -116,31 +116,6 @@
   </si>
   <si>
     <t>800~3000</t>
-  </si>
-  <si>
-    <r>
-      <t>com_award_icon_hfsp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1624924800,1625443200,1626048000,1626652800,1627344000,1627948800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1625500799,1626105599,1626710399,1627315199,1627919999,1630339199</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>福利券</t>
@@ -176,6 +151,14 @@
   </si>
   <si>
     <t>ty_icon_flq4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1625500799,1626105599,1626710399,1627315199,1627919999,1630339199,1632153599</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1624924800,1625443200,1626048000,1626652800,1627344000,1627948800,1631548800</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -195,6 +178,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -585,17 +569,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="47.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="51.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="71.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="74.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="66" customWidth="1"/>
   </cols>
@@ -634,16 +618,16 @@
         <v>1000688</v>
       </c>
       <c r="C2" s="7">
-        <v>1627948800</v>
+        <v>1631577600</v>
       </c>
       <c r="D2" s="7">
-        <v>1630339199</v>
+        <v>1632153599</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -799,7 +783,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -876,13 +860,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -893,13 +877,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -945,13 +929,13 @@
         <v>800</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -996,13 +980,13 @@
         <v>3000</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">

--- a/config_Release/act_053_xcns_config.xlsx
+++ b/config_Release/act_053_xcns_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -154,11 +154,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1625500799,1626105599,1626710399,1627315199,1627919999,1630339199,1632153599</t>
+    <t>1624924800,1625443200,1626048000,1626652800,1627344000,1627948800,1631548800,1633996800</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1624924800,1625443200,1626048000,1626652800,1627344000,1627948800,1631548800</t>
+    <t>1625500799,1626105599,1626710399,1627315199,1627919999,1630339199,1632153599,1634572799</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,16 +618,16 @@
         <v>1000688</v>
       </c>
       <c r="C2" s="7">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="D2" s="7">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -782,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/act_053_xcns_config.xlsx
+++ b/config_Release/act_053_xcns_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>line</t>
   </si>
@@ -34,12 +34,6 @@
     <t>endTime|结束时间</t>
   </si>
   <si>
-    <t>startTime_weekly</t>
-  </si>
-  <si>
-    <t>endTime_weekly</t>
-  </si>
-  <si>
     <t>gotoui|获取倍数跳转</t>
   </si>
   <si>
@@ -122,7 +116,7 @@
   </si>
   <si>
     <t>福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -139,34 +133,26 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1624924800,1625443200,1626048000,1626652800,1627344000,1627948800,1631548800,1633996800</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1625500799,1626105599,1626710399,1627315199,1627919999,1630339199,1632153599,1634572799</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,12 +166,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -258,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,30 +246,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,13 +547,11 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="71.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="74.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="66" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,182 +564,140 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>1000688</v>
       </c>
-      <c r="C2" s="7">
-        <v>1633996800</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1634572799</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="4">
+        <v>1635811200</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1636387199</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -799,22 +724,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -824,14 +749,14 @@
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -842,14 +767,14 @@
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -859,14 +784,14 @@
       <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>32</v>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -876,14 +801,14 @@
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>32</v>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -894,14 +819,14 @@
       <c r="B6" s="1">
         <v>200</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -911,14 +836,14 @@
       <c r="B7" s="1">
         <v>400</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -928,14 +853,14 @@
       <c r="B8" s="1">
         <v>800</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -945,14 +870,14 @@
       <c r="B9" s="1">
         <v>1200</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>21</v>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -962,14 +887,14 @@
       <c r="B10" s="1">
         <v>2000</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -979,14 +904,14 @@
       <c r="B11" s="1">
         <v>3000</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1060,7 +985,7 @@
       <c r="E21" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config_Release/act_053_xcns_config.xlsx
+++ b/config_Release/act_053_xcns_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -579,10 +579,10 @@
         <v>1000688</v>
       </c>
       <c r="C2" s="4">
-        <v>1635811200</v>
+        <v>1638230400</v>
       </c>
       <c r="D2" s="4">
-        <v>1636387199</v>
+        <v>1638806399</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
